--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>killed</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -55,16 +55,16 @@
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
@@ -73,49 +73,49 @@
     <t>fear</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>drop</t>
@@ -127,19 +127,25 @@
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>nice</t>
   </si>
   <si>
     <t>happy</t>
@@ -148,115 +154,115 @@
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>sure</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>key</t>
   </si>
   <si>
     <t>share</t>
@@ -265,7 +271,7 @@
     <t>give</t>
   </si>
   <si>
-    <t>health</t>
+    <t>essential</t>
   </si>
   <si>
     <t>online</t>
@@ -274,6 +280,9 @@
     <t>shopping</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
@@ -290,9 +299,6 @@
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -656,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,16 +802,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -817,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -896,10 +902,10 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
         <v>24</v>
@@ -917,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -946,16 +952,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -975,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.76</v>
+        <v>0.7157534246575342</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -993,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1017,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1025,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7241379310344828</v>
+        <v>0.68</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,7 +1052,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>0.8333333333333334</v>
@@ -1075,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1093,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8203125</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1117,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1125,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6986301369863014</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C11">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1143,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1167,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1175,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1193,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8083333333333333</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1217,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1225,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1243,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1267,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5128205128205128</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1293,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1317,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1325,13 +1331,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4871794871794872</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1343,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.746031746031746</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1367,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1375,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4814814814814815</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1393,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.7450980392156863</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1417,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1425,13 +1431,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4516129032258064</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1443,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1467,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1475,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4333333333333333</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1493,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.7375</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L18">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="M18">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1517,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1525,13 +1531,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4324324324324325</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1543,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.7368421052631579</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1567,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1575,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4193548387096774</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1593,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.7358490566037735</v>
+        <v>0.71875</v>
       </c>
       <c r="L20">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="M20">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1617,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1625,13 +1631,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4054054054054054</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1643,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.7272727272727273</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1667,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1675,13 +1681,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1693,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.7083333333333334</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1717,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1725,13 +1731,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3758389261744967</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1743,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>93</v>
+        <v>347</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.6808510638297872</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L23">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1767,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1775,38 +1781,38 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3333333333333333</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>41</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="L24">
         <v>17</v>
       </c>
-      <c r="D24">
+      <c r="M24">
         <v>17</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>34</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L24">
-        <v>24</v>
-      </c>
-      <c r="M24">
-        <v>24</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1825,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3313953488372093</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C25">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1843,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>345</v>
+        <v>54</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.6428571428571429</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1867,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1875,13 +1881,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2962962962962963</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C26">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1893,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.6296296296296297</v>
+        <v>0.6240208877284595</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1917,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1925,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.288135593220339</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1943,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1967,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1975,13 +1981,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2597402597402597</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1993,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.62</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2017,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2025,13 +2031,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2372881355932203</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2043,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.6057441253263708</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L29">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2067,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>151</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2075,13 +2081,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2093,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.5676470588235294</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L30">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2117,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>147</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2146,16 +2152,16 @@
         <v>206</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K31">
-        <v>0.5294117647058824</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2167,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2175,479 +2181,503 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1018766756032172</v>
+        <v>0.1625</v>
       </c>
       <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>67</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32">
+        <v>0.5280898876404494</v>
+      </c>
+      <c r="L32">
+        <v>47</v>
+      </c>
+      <c r="M32">
+        <v>47</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D32">
+      <c r="B33">
+        <v>0.09919571045576407</v>
+      </c>
+      <c r="C33">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>37</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>336</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>0.5254237288135594</v>
+      </c>
+      <c r="L33">
+        <v>155</v>
+      </c>
+      <c r="M33">
+        <v>155</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>0.525</v>
+      </c>
+      <c r="L34">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <v>18</v>
+      </c>
+      <c r="M35">
+        <v>18</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="L36">
+        <v>32</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37">
+        <v>0.475</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38">
+        <v>0.4728033472803347</v>
+      </c>
+      <c r="L38">
+        <v>113</v>
+      </c>
+      <c r="M38">
+        <v>113</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="L39">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>15</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="L40">
+        <v>33</v>
+      </c>
+      <c r="M40">
+        <v>33</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42">
+        <v>0.410958904109589</v>
+      </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>30</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43">
+        <v>0.40625</v>
+      </c>
+      <c r="L43">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>38</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>335</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32">
-        <v>0.5288135593220339</v>
-      </c>
-      <c r="L32">
-        <v>156</v>
-      </c>
-      <c r="M32">
-        <v>156</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33">
-        <v>0.5280898876404494</v>
-      </c>
-      <c r="L33">
-        <v>47</v>
-      </c>
-      <c r="M33">
-        <v>47</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>0.4931506849315068</v>
-      </c>
-      <c r="L34">
-        <v>36</v>
-      </c>
-      <c r="M34">
-        <v>36</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35">
-        <v>0.4883720930232558</v>
-      </c>
-      <c r="L35">
-        <v>21</v>
-      </c>
-      <c r="M35">
-        <v>21</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K36">
-        <v>0.4769874476987448</v>
-      </c>
-      <c r="L36">
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="L44">
+        <v>16</v>
+      </c>
+      <c r="M44">
+        <v>16</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K45">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+      <c r="M45">
+        <v>15</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46">
+        <v>0.2714285714285714</v>
+      </c>
+      <c r="L46">
+        <v>19</v>
+      </c>
+      <c r="M46">
+        <v>19</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="L47">
+        <v>15</v>
+      </c>
+      <c r="M47">
+        <v>15</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K48">
+        <v>0.1023622047244094</v>
+      </c>
+      <c r="L48">
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <v>13</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>114</v>
-      </c>
-      <c r="M36">
-        <v>114</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="L37">
-        <v>15</v>
-      </c>
-      <c r="M37">
-        <v>15</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L38">
-        <v>19</v>
-      </c>
-      <c r="M38">
-        <v>19</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K39">
-        <v>0.4487179487179487</v>
-      </c>
-      <c r="L39">
-        <v>35</v>
-      </c>
-      <c r="M39">
-        <v>35</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L40">
-        <v>20</v>
-      </c>
-      <c r="M40">
-        <v>20</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41">
-        <v>0.425</v>
-      </c>
-      <c r="L41">
-        <v>17</v>
-      </c>
-      <c r="M41">
-        <v>17</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42">
-        <v>0.4153846153846154</v>
-      </c>
-      <c r="L42">
-        <v>27</v>
-      </c>
-      <c r="M42">
-        <v>27</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43">
-        <v>0.390625</v>
-      </c>
-      <c r="L43">
-        <v>25</v>
-      </c>
-      <c r="M43">
-        <v>25</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K44">
-        <v>0.325</v>
-      </c>
-      <c r="L44">
-        <v>13</v>
-      </c>
-      <c r="M44">
-        <v>13</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K45">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="L45">
-        <v>22</v>
-      </c>
-      <c r="M45">
-        <v>22</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K46">
-        <v>0.2622950819672131</v>
-      </c>
-      <c r="L46">
-        <v>16</v>
-      </c>
-      <c r="M46">
-        <v>16</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K47">
-        <v>0.09923664122137404</v>
-      </c>
-      <c r="L47">
-        <v>13</v>
-      </c>
-      <c r="M47">
-        <v>13</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K48">
-        <v>0.09569377990430622</v>
-      </c>
-      <c r="L48">
-        <v>40</v>
-      </c>
-      <c r="M48">
-        <v>40</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>378</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49">
-        <v>0.09134615384615384</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L49">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M49">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2664,16 +2694,16 @@
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>0.06511627906976744</v>
+        <v>0.0889423076923077</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2685,21 +2715,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>201</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>0.05369127516778523</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="L51">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2711,21 +2741,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>846</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.03995560488346282</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L52">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2737,99 +2767,99 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>865</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>0.03389830508474576</v>
+        <v>0.04921700223713647</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>627</v>
+        <v>850</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>0.03117782909930716</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N54">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>839</v>
+        <v>861</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.02477793361383824</v>
+        <v>0.02927580893682588</v>
       </c>
       <c r="L55">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N55">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O55">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2086</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K56">
-        <v>0.01446280991735537</v>
+        <v>0.02306805074971165</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2841,59 +2871,85 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>954</v>
+        <v>847</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>0.01031925185424057</v>
+        <v>0.01868285847734703</v>
       </c>
       <c r="L57">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N57">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="O57">
-        <v>0.16</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>3069</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K58">
-        <v>0.005954246317768724</v>
+        <v>0.009035172636334301</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M58">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N58">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="O58">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3172</v>
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59">
+        <v>0.005322479649342517</v>
+      </c>
+      <c r="L59">
+        <v>17</v>
+      </c>
+      <c r="M59">
+        <v>24</v>
+      </c>
+      <c r="N59">
+        <v>0.71</v>
+      </c>
+      <c r="O59">
+        <v>0.29</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3177</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,55 +40,58 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>low</t>
@@ -97,24 +100,21 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>sc</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
@@ -124,145 +124,154 @@
     <t>empty</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>energy</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>clean</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>save</t>
   </si>
   <si>
     <t>share</t>
@@ -271,6 +280,12 @@
     <t>give</t>
   </si>
   <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>essential</t>
   </si>
   <si>
@@ -280,28 +295,40 @@
     <t>shopping</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -662,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,7 +700,7 @@
         <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,13 +782,13 @@
         <v>40</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,13 +832,13 @@
         <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -855,13 +882,13 @@
         <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -931,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7157534246575342</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.68</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1081,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6551724137931034</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>0.8203125</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5333333333333333</v>
+        <v>0.702054794520548</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.84375</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1205,13 +1232,13 @@
         <v>49</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1255,13 +1282,13 @@
         <v>50</v>
       </c>
       <c r="K13">
-        <v>0.8028169014084507</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1273,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1281,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>0.8</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L14">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4516129032258064</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4516129032258064</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -1399,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K16">
-        <v>0.7727272727272727</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4102564102564102</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1449,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3783783783783784</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K18">
-        <v>0.7452830188679245</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L18">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1523,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1531,13 +1558,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3783783783783784</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K19">
-        <v>0.7446808510638298</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1573,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1581,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3758389261744967</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1599,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K20">
-        <v>0.71875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1658,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3333333333333333</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,13 +1708,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3333333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1699,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K22">
-        <v>0.6842105263157895</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1731,13 +1758,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3275193798449613</v>
+        <v>0.3527131782945737</v>
       </c>
       <c r="C23">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D23">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K23">
-        <v>0.6458333333333334</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1773,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,13 +1808,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3050847457627119</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1799,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K24">
-        <v>0.6296296296296297</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1823,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1858,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2987012987012987</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1849,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K25">
-        <v>0.6276595744680851</v>
+        <v>0.7125</v>
       </c>
       <c r="L25">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="M25">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1873,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2857142857142857</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K26">
-        <v>0.6240208877284595</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L26">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>144</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,13 +1958,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2745098039215687</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1949,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K27">
-        <v>0.5882352941176471</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1973,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1981,13 +2008,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2363636363636364</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1999,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K28">
-        <v>0.5764705882352941</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2023,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2031,13 +2058,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2203389830508475</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2049,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K29">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2073,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2081,13 +2108,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2099,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K30">
-        <v>0.5581395348837209</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2123,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2131,13 +2158,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1825396825396825</v>
+        <v>0.175</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2149,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K31">
-        <v>0.5357142857142857</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2173,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2181,13 +2208,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1625</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2199,19 +2226,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K32">
-        <v>0.5280898876404494</v>
+        <v>0.6057441253263708</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="M32">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2223,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2231,13 +2258,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.09919571045576407</v>
+        <v>0.1072386058981233</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2249,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K33">
-        <v>0.5254237288135594</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L33">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="M33">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2273,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>140</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2281,13 +2308,13 @@
         <v>71</v>
       </c>
       <c r="K34">
-        <v>0.525</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2299,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2307,13 +2334,13 @@
         <v>72</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2333,13 +2360,13 @@
         <v>73</v>
       </c>
       <c r="K36">
-        <v>0.4923076923076923</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2351,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2359,13 +2386,13 @@
         <v>74</v>
       </c>
       <c r="K37">
-        <v>0.475</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2385,13 +2412,13 @@
         <v>75</v>
       </c>
       <c r="K38">
-        <v>0.4728033472803347</v>
+        <v>0.5</v>
       </c>
       <c r="L38">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2403,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2411,13 +2438,13 @@
         <v>76</v>
       </c>
       <c r="K39">
-        <v>0.4545454545454545</v>
+        <v>0.4847457627118644</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2429,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2437,25 +2464,25 @@
         <v>77</v>
       </c>
       <c r="K40">
-        <v>0.4230769230769231</v>
+        <v>0.484375</v>
       </c>
       <c r="L40">
+        <v>31</v>
+      </c>
+      <c r="M40">
+        <v>31</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>33</v>
-      </c>
-      <c r="M40">
-        <v>33</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2463,13 +2490,13 @@
         <v>78</v>
       </c>
       <c r="K41">
-        <v>0.4222222222222222</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2481,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>26</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2489,13 +2516,13 @@
         <v>79</v>
       </c>
       <c r="K42">
-        <v>0.410958904109589</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2507,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2515,13 +2542,13 @@
         <v>80</v>
       </c>
       <c r="K43">
-        <v>0.40625</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2533,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2541,13 +2568,13 @@
         <v>81</v>
       </c>
       <c r="K44">
-        <v>0.3809523809523809</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2559,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2567,13 +2594,13 @@
         <v>82</v>
       </c>
       <c r="K45">
-        <v>0.3191489361702128</v>
+        <v>0.425</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2585,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2593,13 +2620,13 @@
         <v>83</v>
       </c>
       <c r="K46">
-        <v>0.2714285714285714</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2611,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2619,13 +2646,13 @@
         <v>84</v>
       </c>
       <c r="K47">
-        <v>0.2459016393442623</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2645,13 +2672,13 @@
         <v>85</v>
       </c>
       <c r="K48">
-        <v>0.1023622047244094</v>
+        <v>0.4</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2663,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2671,13 +2698,13 @@
         <v>86</v>
       </c>
       <c r="K49">
-        <v>0.09569377990430622</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2689,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>378</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2697,13 +2724,13 @@
         <v>87</v>
       </c>
       <c r="K50">
-        <v>0.0889423076923077</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L50">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2715,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>379</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2723,13 +2750,13 @@
         <v>88</v>
       </c>
       <c r="K51">
-        <v>0.08139534883720931</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2741,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>158</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2749,13 +2776,13 @@
         <v>89</v>
       </c>
       <c r="K52">
-        <v>0.06976744186046512</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2767,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>200</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2775,13 +2802,13 @@
         <v>90</v>
       </c>
       <c r="K53">
-        <v>0.04921700223713647</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="L53">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2793,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>850</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2801,13 +2828,13 @@
         <v>91</v>
       </c>
       <c r="K54">
-        <v>0.04439511653718091</v>
+        <v>0.1172248803827751</v>
       </c>
       <c r="L54">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M54">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2819,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>861</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2827,25 +2854,25 @@
         <v>92</v>
       </c>
       <c r="K55">
-        <v>0.02927580893682588</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>630</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2853,13 +2880,13 @@
         <v>93</v>
       </c>
       <c r="K56">
-        <v>0.02306805074971165</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2871,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>847</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2879,25 +2906,25 @@
         <v>94</v>
       </c>
       <c r="K57">
-        <v>0.01868285847734703</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="L57">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N57">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>2101</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2905,25 +2932,25 @@
         <v>95</v>
       </c>
       <c r="K58">
-        <v>0.009035172636334301</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L58">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M58">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N58">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>3071</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2931,25 +2958,259 @@
         <v>96</v>
       </c>
       <c r="K59">
-        <v>0.005322479649342517</v>
+        <v>0.05033557046979865</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M59">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N59">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>3177</v>
+        <v>849</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K60">
+        <v>0.04587155963302753</v>
+      </c>
+      <c r="L60">
+        <v>15</v>
+      </c>
+      <c r="M60">
+        <v>15</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K61">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="L61">
+        <v>34</v>
+      </c>
+      <c r="M61">
+        <v>34</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K62">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="L62">
+        <v>18</v>
+      </c>
+      <c r="M62">
+        <v>18</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K63">
+        <v>0.03271028037383177</v>
+      </c>
+      <c r="L63">
+        <v>70</v>
+      </c>
+      <c r="M63">
+        <v>73</v>
+      </c>
+      <c r="N63">
+        <v>0.96</v>
+      </c>
+      <c r="O63">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K64">
+        <v>0.02998846597462514</v>
+      </c>
+      <c r="L64">
+        <v>26</v>
+      </c>
+      <c r="M64">
+        <v>26</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K65">
+        <v>0.02773497688751926</v>
+      </c>
+      <c r="L65">
+        <v>18</v>
+      </c>
+      <c r="M65">
+        <v>19</v>
+      </c>
+      <c r="N65">
+        <v>0.95</v>
+      </c>
+      <c r="O65">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K66">
+        <v>0.01642512077294686</v>
+      </c>
+      <c r="L66">
+        <v>51</v>
+      </c>
+      <c r="M66">
+        <v>53</v>
+      </c>
+      <c r="N66">
+        <v>0.96</v>
+      </c>
+      <c r="O66">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K67">
+        <v>0.01549586776859504</v>
+      </c>
+      <c r="L67">
+        <v>15</v>
+      </c>
+      <c r="M67">
+        <v>15</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K68">
+        <v>0.007194244604316547</v>
+      </c>
+      <c r="L68">
+        <v>23</v>
+      </c>
+      <c r="M68">
+        <v>27</v>
+      </c>
+      <c r="N68">
+        <v>0.85</v>
+      </c>
+      <c r="O68">
+        <v>0.15</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>3174</v>
       </c>
     </row>
   </sheetData>
